--- a/StructureDefinition-ext-R5-Account.procedure.xlsx
+++ b/StructureDefinition-ext-R5-Account.procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.procedure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.procedure` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Account</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.sequence` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.sequence` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure.sequence` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -422,7 +422,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.code` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.code` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure.code` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -495,7 +495,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:concept.id</t>
@@ -532,7 +532,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -575,7 +575,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.dateOfService` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.dateOfService` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure.dateOfService` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfService.id</t>
@@ -607,7 +607,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.type` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.type` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure.type` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -635,7 +635,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.packageCode` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.packageCode` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Element `Account.procedure.packageCode` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -663,7 +663,8 @@
   </si>
   <si>
     <t>Element `Account.procedure.device` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.device` is mapped to FHIR R4 structure `Account`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Account.procedure.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Account.procedure.device` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:device.id</t>
@@ -1019,7 +1020,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="126.30078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="193.04296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Account.procedure.xlsx
+++ b/StructureDefinition-ext-R5-Account.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Account.procedure` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Account.procedure` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.sequence` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.sequence` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.sequence</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +425,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.code` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.code` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.code` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -494,8 +497,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:concept.id</t>
@@ -532,8 +535,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:reference.id</t>
@@ -555,6 +558,9 @@
     <t>Extension.extension:code.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.code</t>
+  </si>
+  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -575,7 +581,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.dateOfService` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.dateOfService` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.dateOfService` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfService.id</t>
@@ -585,6 +591,9 @@
   </si>
   <si>
     <t>Extension.extension:dateOfService.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.dateOfService</t>
   </si>
   <si>
     <t>Extension.extension:dateOfService.value[x]</t>
@@ -607,7 +616,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.type` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.type` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -619,6 +628,9 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.type</t>
+  </si>
+  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -635,7 +647,7 @@
   </si>
   <si>
     <t>Element `Account.procedure.packageCode` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.packageCode` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -645,6 +657,9 @@
   </si>
   <si>
     <t>Extension.extension:packageCode.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.packageCode</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.value[x]</t>
@@ -664,7 +679,7 @@
   <si>
     <t>Element `Account.procedure.device` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Account.procedure.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Account.procedure.device` is will have a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+Element `Account.procedure.device` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:device.id</t>
@@ -674,6 +689,9 @@
   </si>
   <si>
     <t>Extension.extension:device.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.device</t>
   </si>
   <si>
     <t>Extension.extension:device.value[x]</t>
@@ -1826,7 +1844,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1868,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1883,15 +1901,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1914,7 +1932,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1971,7 +1989,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1983,21 +2001,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2022,14 +2040,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2098,7 +2116,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2201,7 +2219,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2304,13 +2322,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2335,10 +2353,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2409,10 +2427,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2512,10 +2530,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2617,10 +2635,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2660,7 +2678,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2702,7 +2720,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
@@ -2717,15 +2735,15 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2751,13 +2769,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2765,7 +2783,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2807,7 +2825,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -2819,21 +2837,21 @@
         <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2858,14 +2876,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2934,10 +2952,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3037,10 +3055,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3142,10 +3160,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3185,7 +3203,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3227,7 +3245,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -3242,15 +3260,15 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3273,13 +3291,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3306,11 +3324,11 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3328,7 +3346,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -3340,21 +3358,21 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3379,14 +3397,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3455,10 +3473,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3558,10 +3576,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3663,10 +3681,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3706,7 +3724,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3748,7 +3766,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -3763,15 +3781,15 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3794,13 +3812,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3851,7 +3869,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -3863,15 +3881,15 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3914,7 +3932,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3956,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3971,15 +3989,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4002,13 +4020,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4059,7 +4077,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4071,21 +4089,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4110,14 +4128,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4186,7 +4204,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4289,7 +4307,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4394,7 +4412,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4437,7 +4455,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4479,7 +4497,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4494,15 +4512,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4525,13 +4543,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4582,7 +4600,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4594,21 +4612,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4633,14 +4651,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4709,7 +4727,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4812,7 +4830,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4917,7 +4935,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4960,7 +4978,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5002,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5017,15 +5035,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5048,13 +5066,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5105,7 +5123,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5117,21 +5135,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5156,14 +5174,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5232,7 +5250,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5335,7 +5353,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5440,7 +5458,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5483,7 +5501,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5525,7 +5543,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -5540,15 +5558,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5571,13 +5589,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5628,7 +5646,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5640,21 +5658,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5679,14 +5697,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5755,7 +5773,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5858,7 +5876,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -5963,7 +5981,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6006,7 +6024,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6048,7 +6066,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -6063,15 +6081,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6094,13 +6112,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6151,7 +6169,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6163,18 +6181,18 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6256,7 +6274,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
@@ -6271,15 +6289,15 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6302,13 +6320,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6359,7 +6377,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -6371,10 +6389,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Account.procedure.xlsx
+++ b/StructureDefinition-ext-R5-Account.procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -497,8 +497,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:concept.id</t>
@@ -520,7 +519,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-procedure-code-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-procedure-code-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:reference</t>
@@ -535,8 +534,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:reference.id</t>
@@ -551,7 +549,7 @@
     <t>Extension.extension:code.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)
 </t>
   </si>
   <si>
@@ -697,7 +695,7 @@
     <t>Extension.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
 </sst>
@@ -1049,7 +1047,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.14453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-Account.procedure.xlsx
+++ b/StructureDefinition-ext-R5-Account.procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Ranking of the procedure (for each type).</t>
   </si>
   <si>
-    <t>Element `Account.procedure.sequence` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure.sequence` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:sequence.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.sequence</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>The procedure relevant to the account.</t>
   </si>
   <si>
-    <t>Element `Account.procedure.code` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.code` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure.code` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -497,7 +492,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:concept.id</t>
@@ -516,12 +511,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-procedure-code-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:code.extension:reference</t>
   </si>
   <si>
@@ -534,7 +523,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:code.extension:reference.id</t>
@@ -549,14 +538,11 @@
     <t>Extension.extension:code.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1)
 </t>
   </si>
   <si>
     <t>Extension.extension:code.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.code</t>
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
@@ -578,8 +564,7 @@
     <t>Date of the procedure when using a coded procedure. If using a reference to a procedure, then the date on the procedure should be used.</t>
   </si>
   <si>
-    <t>Element `Account.procedure.dateOfService` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.dateOfService` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure.dateOfService` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:dateOfService.id</t>
@@ -589,9 +574,6 @@
   </si>
   <si>
     <t>Extension.extension:dateOfService.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.dateOfService</t>
   </si>
   <si>
     <t>Extension.extension:dateOfService.value[x]</t>
@@ -613,8 +595,7 @@
     <t>How this procedure value should be used in charging the account.</t>
   </si>
   <si>
-    <t>Element `Account.procedure.type` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure.type` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -626,9 +607,6 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.type</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
@@ -644,8 +622,7 @@
     <t>The package code can be used to group procedures that may be priced or delivered as a single product. Such as DRGs.</t>
   </si>
   <si>
-    <t>Element `Account.procedure.packageCode` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Element `Account.procedure.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
+    <t>Element `Account.procedure.packageCode` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
     <t>Extension.extension:packageCode.id</t>
@@ -657,9 +634,6 @@
     <t>Extension.extension:packageCode.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.packageCode</t>
-  </si>
-  <si>
     <t>Extension.extension:packageCode.value[x]</t>
   </si>
   <si>
@@ -675,8 +649,7 @@
     <t>Any devices that were associated with the procedure relevant to the account.</t>
   </si>
   <si>
-    <t>Element `Account.procedure.device` is part of an existing definition because parent element `Account.procedure` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Account.procedure.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Account.procedure.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `Account.procedure.device` has a context of Account based on following the parent source element upwards and mapping to `Account`.</t>
   </si>
   <si>
@@ -689,13 +662,10 @@
     <t>Extension.extension:device.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Account.procedure.device</t>
-  </si>
-  <si>
     <t>Extension.extension:device.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
 </sst>
@@ -1047,7 +1017,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="52.14453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1842,72 +1812,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1930,7 +1900,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1987,33 +1957,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2038,14 +2008,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2114,7 +2084,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2217,7 +2187,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2320,13 +2290,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -2351,10 +2321,10 @@
         <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2425,10 +2395,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2528,10 +2498,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2633,10 +2603,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2676,7 +2646,7 @@
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>77</v>
@@ -2718,30 +2688,30 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2767,13 +2737,13 @@
         <v>87</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2781,7 +2751,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>77</v>
@@ -2823,33 +2793,33 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>77</v>
@@ -2874,14 +2844,14 @@
         <v>93</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -2950,10 +2920,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3053,10 +3023,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3158,10 +3128,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3201,7 +3171,7 @@
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>77</v>
@@ -3243,30 +3213,30 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3289,13 +3259,13 @@
         <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3322,11 +3292,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -3344,33 +3316,33 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3395,14 +3367,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3471,10 +3443,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3574,10 +3546,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3679,10 +3651,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3722,7 +3694,7 @@
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>77</v>
@@ -3764,30 +3736,30 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3810,13 +3782,13 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3867,27 +3839,27 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK27" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3930,7 +3902,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3972,30 +3944,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4018,13 +3990,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4075,33 +4047,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4126,14 +4098,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4202,7 +4174,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4305,7 +4277,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4410,7 +4382,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4453,7 +4425,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4495,30 +4467,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4541,13 +4513,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4598,33 +4570,33 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4649,14 +4621,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4725,7 +4697,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4828,7 +4800,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4933,7 +4905,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4976,7 +4948,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5018,30 +4990,30 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5064,13 +5036,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5121,33 +5093,33 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5172,14 +5144,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5248,7 +5220,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5351,7 +5323,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
@@ -5456,7 +5428,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>113</v>
@@ -5499,7 +5471,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5541,30 +5513,30 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5587,13 +5559,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5644,33 +5616,33 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -5695,14 +5667,14 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -5771,7 +5743,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>105</v>
@@ -5874,7 +5846,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>107</v>
@@ -5979,7 +5951,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>113</v>
@@ -6022,7 +5994,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6064,30 +6036,30 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6110,13 +6082,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6167,30 +6139,30 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6272,30 +6244,30 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6318,13 +6290,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6375,22 +6347,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
